--- a/Output/Cuadros/3. HUELGAS/cuadro1.xlsx
+++ b/Output/Cuadros/3. HUELGAS/cuadro1.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -758,6 +758,23 @@
         <v>15969</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24">
+        <v>845</v>
+      </c>
+      <c r="C24">
+        <v>124250</v>
+      </c>
+      <c r="D24">
+        <v>153</v>
+      </c>
+      <c r="E24">
+        <v>32128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
